--- a/GraficoCidades.xlsx
+++ b/GraficoCidades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4300A-D7A5-47AD-B701-33407EAA6913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1421EAF-8C6F-4840-8292-DAAE7C76289F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{13515442-5AFF-4110-9A85-168C9A166844}"/>
   </bookViews>
@@ -407,6 +407,14 @@
             <a:t>Web Scraping (Python)</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -492,15 +500,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
+      <xdr:colOff>200027</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>95642</xdr:colOff>
+      <xdr:colOff>38493</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>90489</xdr:rowOff>
+      <xdr:rowOff>138114</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -515,7 +523,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="3483964" y="2373912"/>
+          <a:off x="3426815" y="2421537"/>
           <a:ext cx="1919289" cy="2276866"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -545,7 +553,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1600"/>
-            <a:t>Limpeza, Processamento, Integração (Python)</a:t>
+            <a:t>Limpeza, Processamento, Integração (Python) </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -941,6 +949,252 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE64E6B1-665B-4CE5-9D98-CC4359605E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857499" y="1466850"/>
+          <a:ext cx="2686052" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>xtract - Glauber</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DAC03A-2C2C-48D9-BAE7-2C5BA2669C6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="4114800"/>
+          <a:ext cx="2876550" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ransform - João</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{942B03FF-0AE1-4FD1-992C-602B530E6014}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="3257550"/>
+          <a:ext cx="2028825" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>L</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>oad - Rogério</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1249,7 +1503,7 @@
   <dimension ref="G16"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
